--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100913_v2.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100913_v2.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -876,8 +876,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,7 +1302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="96">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -2491,6 +2491,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2500,7 +2511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3212,72 +3223,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3347,6 +3292,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="96" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - 강조색5" xfId="1" builtinId="48"/>
@@ -3354,6 +3371,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4214,7 +4236,7 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>141</xdr:col>
+      <xdr:col>155</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
@@ -4227,7 +4249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="25203151" y="4114800"/>
-          <a:ext cx="8905874" cy="352425"/>
+          <a:ext cx="11706224" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="notchedRightArrow">
           <a:avLst/>
@@ -5772,16 +5794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>136</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>149</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>141</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>155</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5790,7 +5812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33032700" y="5476875"/>
+          <a:off x="35747325" y="5362575"/>
           <a:ext cx="1066800" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -5912,6 +5934,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5946,6 +5969,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6121,16 +6145,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
       <pane xSplit="24885" topLeftCell="CJ1"/>
-      <selection activeCell="EK10" sqref="EK10"/>
+      <selection activeCell="FI10" sqref="FI10"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" style="216" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="7" customWidth="1"/>
@@ -6712,19 +6736,19 @@
     <col min="16156" max="16169" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:220">
+    <row r="1" spans="2:220" x14ac:dyDescent="0.3">
       <c r="B1" s="216"/>
       <c r="C1" s="216"/>
       <c r="D1" s="216"/>
       <c r="E1" s="217"/>
     </row>
-    <row r="2" spans="2:220">
+    <row r="2" spans="2:220" x14ac:dyDescent="0.3">
       <c r="B2" s="216"/>
       <c r="C2" s="216"/>
       <c r="D2" s="216"/>
       <c r="E2" s="217"/>
     </row>
-    <row r="3" spans="2:220" ht="31.5">
+    <row r="3" spans="2:220" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B3" s="220" t="s">
         <v>120</v>
       </c>
@@ -6734,13 +6758,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:220">
+    <row r="4" spans="2:220" x14ac:dyDescent="0.3">
       <c r="B4" s="216"/>
       <c r="C4" s="216"/>
       <c r="D4" s="216"/>
       <c r="E4" s="217"/>
     </row>
-    <row r="5" spans="2:220" ht="18" thickBot="1">
+    <row r="5" spans="2:220" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="216"/>
       <c r="C5" s="216"/>
       <c r="D5" s="216"/>
@@ -6757,20 +6781,20 @@
       <c r="CG5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="DK5" s="260" t="s">
+      <c r="DK5" s="238" t="s">
         <v>123</v>
       </c>
-      <c r="EP5" s="260" t="s">
+      <c r="EP5" s="238" t="s">
         <v>124</v>
       </c>
-      <c r="FT5" s="260" t="s">
+      <c r="FT5" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="GY5" s="260" t="s">
+      <c r="GY5" s="238" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:220" ht="18" thickTop="1" thickBot="1">
+    <row r="6" spans="2:220" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="216"/>
       <c r="C6" s="44"/>
       <c r="D6" s="47"/>
@@ -7421,7 +7445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:220" ht="50.1" customHeight="1" thickTop="1">
+    <row r="7" spans="2:220" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="216"/>
       <c r="C7" s="50"/>
       <c r="D7" s="59" t="s">
@@ -7565,7 +7589,7 @@
       <c r="EJ7" s="13"/>
       <c r="EK7" s="13"/>
       <c r="EL7" s="13"/>
-      <c r="EM7" s="55"/>
+      <c r="EM7" s="282"/>
       <c r="EN7" s="14"/>
       <c r="EO7" s="14"/>
       <c r="EP7" s="13"/>
@@ -7579,7 +7603,7 @@
       <c r="EX7" s="13"/>
       <c r="EY7" s="13"/>
       <c r="EZ7" s="13"/>
-      <c r="FA7" s="13"/>
+      <c r="FA7" s="55"/>
       <c r="FB7" s="14"/>
       <c r="FC7" s="14"/>
       <c r="FD7" s="13"/>
@@ -7642,9 +7666,9 @@
       <c r="HI7" s="13"/>
       <c r="HJ7" s="13"/>
       <c r="HK7" s="13"/>
-      <c r="HL7" s="266"/>
+      <c r="HL7" s="244"/>
     </row>
-    <row r="8" spans="2:220" ht="50.1" customHeight="1">
+    <row r="8" spans="2:220" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="216"/>
       <c r="C8" s="51"/>
       <c r="D8" s="60" t="s">
@@ -7743,7 +7767,7 @@
       <c r="CQ8" s="80"/>
       <c r="CR8" s="80"/>
       <c r="CS8" s="80"/>
-      <c r="CT8" s="263"/>
+      <c r="CT8" s="241"/>
       <c r="CU8" s="48"/>
       <c r="CV8" s="48"/>
       <c r="CW8" s="49"/>
@@ -7788,7 +7812,7 @@
       <c r="EJ8" s="48"/>
       <c r="EK8" s="48"/>
       <c r="EL8" s="48"/>
-      <c r="EM8" s="211"/>
+      <c r="EM8" s="49"/>
       <c r="EN8" s="49"/>
       <c r="EO8" s="49"/>
       <c r="EP8" s="48"/>
@@ -7802,7 +7826,7 @@
       <c r="EX8" s="48"/>
       <c r="EY8" s="48"/>
       <c r="EZ8" s="48"/>
-      <c r="FA8" s="49"/>
+      <c r="FA8" s="211"/>
       <c r="FB8" s="49"/>
       <c r="FC8" s="49"/>
       <c r="FD8" s="48"/>
@@ -7865,9 +7889,9 @@
       <c r="HI8" s="48"/>
       <c r="HJ8" s="48"/>
       <c r="HK8" s="48"/>
-      <c r="HL8" s="267"/>
+      <c r="HL8" s="245"/>
     </row>
-    <row r="9" spans="2:220" ht="50.1" customHeight="1">
+    <row r="9" spans="2:220" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="216"/>
       <c r="C9" s="53"/>
       <c r="D9" s="61" t="s">
@@ -7966,7 +7990,7 @@
       <c r="CQ9" s="80"/>
       <c r="CR9" s="80"/>
       <c r="CS9" s="80"/>
-      <c r="CT9" s="263"/>
+      <c r="CT9" s="241"/>
       <c r="CU9" s="48"/>
       <c r="CV9" s="48"/>
       <c r="CW9" s="49"/>
@@ -8011,7 +8035,7 @@
       <c r="EJ9" s="48"/>
       <c r="EK9" s="48"/>
       <c r="EL9" s="48"/>
-      <c r="EM9" s="211"/>
+      <c r="EM9" s="49"/>
       <c r="EN9" s="49"/>
       <c r="EO9" s="49"/>
       <c r="EP9" s="48"/>
@@ -8025,7 +8049,7 @@
       <c r="EX9" s="48"/>
       <c r="EY9" s="48"/>
       <c r="EZ9" s="48"/>
-      <c r="FA9" s="49"/>
+      <c r="FA9" s="211"/>
       <c r="FB9" s="49"/>
       <c r="FC9" s="49"/>
       <c r="FD9" s="48"/>
@@ -8088,9 +8112,9 @@
       <c r="HI9" s="48"/>
       <c r="HJ9" s="48"/>
       <c r="HK9" s="48"/>
-      <c r="HL9" s="267"/>
+      <c r="HL9" s="245"/>
     </row>
-    <row r="10" spans="2:220" ht="50.1" customHeight="1">
+    <row r="10" spans="2:220" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="216"/>
       <c r="C10" s="54"/>
       <c r="D10" s="62" t="s">
@@ -8189,7 +8213,7 @@
       <c r="CQ10" s="79"/>
       <c r="CR10" s="79"/>
       <c r="CS10" s="79"/>
-      <c r="CT10" s="264"/>
+      <c r="CT10" s="242"/>
       <c r="CU10" s="13"/>
       <c r="CV10" s="13"/>
       <c r="CW10" s="14"/>
@@ -8234,7 +8258,7 @@
       <c r="EJ10" s="13"/>
       <c r="EK10" s="13"/>
       <c r="EL10" s="13"/>
-      <c r="EM10" s="212"/>
+      <c r="EM10" s="14"/>
       <c r="EN10" s="14"/>
       <c r="EO10" s="14"/>
       <c r="EP10" s="13"/>
@@ -8248,7 +8272,7 @@
       <c r="EX10" s="13"/>
       <c r="EY10" s="13"/>
       <c r="EZ10" s="13"/>
-      <c r="FA10" s="14"/>
+      <c r="FA10" s="212"/>
       <c r="FB10" s="14"/>
       <c r="FC10" s="14"/>
       <c r="FD10" s="13"/>
@@ -8311,9 +8335,9 @@
       <c r="HI10" s="13"/>
       <c r="HJ10" s="13"/>
       <c r="HK10" s="13"/>
-      <c r="HL10" s="268"/>
+      <c r="HL10" s="246"/>
     </row>
-    <row r="11" spans="2:220" ht="50.1" customHeight="1" thickBot="1">
+    <row r="11" spans="2:220" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="216"/>
       <c r="C11" s="52"/>
       <c r="D11" s="63" t="s">
@@ -8412,7 +8436,7 @@
       <c r="CQ11" s="80"/>
       <c r="CR11" s="80"/>
       <c r="CS11" s="80"/>
-      <c r="CT11" s="263"/>
+      <c r="CT11" s="241"/>
       <c r="CU11" s="48"/>
       <c r="CV11" s="48"/>
       <c r="CW11" s="49"/>
@@ -8457,7 +8481,7 @@
       <c r="EJ11" s="48"/>
       <c r="EK11" s="48"/>
       <c r="EL11" s="48"/>
-      <c r="EM11" s="262"/>
+      <c r="EM11" s="283"/>
       <c r="EN11" s="49"/>
       <c r="EO11" s="49"/>
       <c r="EP11" s="48"/>
@@ -8471,7 +8495,7 @@
       <c r="EX11" s="48"/>
       <c r="EY11" s="48"/>
       <c r="EZ11" s="48"/>
-      <c r="FA11" s="49"/>
+      <c r="FA11" s="240"/>
       <c r="FB11" s="49"/>
       <c r="FC11" s="49"/>
       <c r="FD11" s="48"/>
@@ -8534,9 +8558,9 @@
       <c r="HI11" s="48"/>
       <c r="HJ11" s="48"/>
       <c r="HK11" s="48"/>
-      <c r="HL11" s="267"/>
+      <c r="HL11" s="245"/>
     </row>
-    <row r="12" spans="2:220" ht="50.1" customHeight="1" thickBot="1">
+    <row r="12" spans="2:220" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="216"/>
       <c r="C12" s="58"/>
       <c r="D12" s="64" t="s">
@@ -8617,7 +8641,7 @@
       <c r="BY12" s="83"/>
       <c r="BZ12" s="83"/>
       <c r="CA12" s="83"/>
-      <c r="CB12" s="259"/>
+      <c r="CB12" s="237"/>
       <c r="CC12" s="83"/>
       <c r="CD12" s="83"/>
       <c r="CE12" s="83"/>
@@ -8635,7 +8659,7 @@
       <c r="CQ12" s="83"/>
       <c r="CR12" s="83"/>
       <c r="CS12" s="83"/>
-      <c r="CT12" s="265"/>
+      <c r="CT12" s="243"/>
       <c r="CU12" s="56"/>
       <c r="CV12" s="56"/>
       <c r="CW12" s="57"/>
@@ -8680,7 +8704,7 @@
       <c r="EJ12" s="56"/>
       <c r="EK12" s="56"/>
       <c r="EL12" s="56"/>
-      <c r="EM12" s="261"/>
+      <c r="EM12" s="57"/>
       <c r="EN12" s="57"/>
       <c r="EO12" s="57"/>
       <c r="EP12" s="56"/>
@@ -8694,7 +8718,7 @@
       <c r="EX12" s="56"/>
       <c r="EY12" s="56"/>
       <c r="EZ12" s="56"/>
-      <c r="FA12" s="57"/>
+      <c r="FA12" s="239"/>
       <c r="FB12" s="57"/>
       <c r="FC12" s="57"/>
       <c r="FD12" s="56"/>
@@ -8757,16 +8781,16 @@
       <c r="HI12" s="56"/>
       <c r="HJ12" s="56"/>
       <c r="HK12" s="56"/>
-      <c r="HL12" s="269"/>
+      <c r="HL12" s="247"/>
     </row>
-    <row r="13" spans="2:220" ht="18" thickTop="1" thickBot="1">
+    <row r="13" spans="2:220" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="216"/>
       <c r="C13" s="216"/>
       <c r="D13" s="216"/>
       <c r="E13" s="217"/>
-      <c r="HL13" s="270"/>
+      <c r="HL13" s="248"/>
     </row>
-    <row r="14" spans="2:220" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="2:220" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="216"/>
       <c r="C14" s="214"/>
       <c r="D14" s="221" t="s">
@@ -8989,23 +9013,23 @@
       <c r="HK14" s="213"/>
       <c r="HL14" s="226"/>
     </row>
-    <row r="15" spans="2:220" ht="17.25" thickTop="1">
+    <row r="15" spans="2:220" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="216"/>
       <c r="C15" s="216"/>
       <c r="D15" s="216"/>
       <c r="E15" s="217"/>
-      <c r="HL15" s="270"/>
+      <c r="HL15" s="248"/>
     </row>
-    <row r="16" spans="2:220" ht="26.25">
+    <row r="16" spans="2:220" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B16" s="219" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="216"/>
       <c r="D16" s="216"/>
       <c r="E16" s="217"/>
-      <c r="HL16" s="270"/>
+      <c r="HL16" s="248"/>
     </row>
-    <row r="17" spans="2:220" ht="18" thickBot="1">
+    <row r="17" spans="2:220" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="216"/>
       <c r="C17" s="216"/>
       <c r="D17" s="216"/>
@@ -9022,21 +9046,21 @@
       <c r="CG17" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="DK17" s="260" t="s">
+      <c r="DK17" s="238" t="s">
         <v>123</v>
       </c>
-      <c r="EP17" s="260" t="s">
+      <c r="EP17" s="238" t="s">
         <v>124</v>
       </c>
-      <c r="FT17" s="260" t="s">
+      <c r="FT17" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="GY17" s="260" t="s">
+      <c r="GY17" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="HL17" s="270"/>
+      <c r="HL17" s="248"/>
     </row>
-    <row r="18" spans="2:220" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="2:220" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23" t="s">
         <v>0</v>
       </c>
@@ -9695,8 +9719,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:220" ht="17.25" thickTop="1">
-      <c r="B19" s="238" t="s">
+    <row r="19" spans="2:220" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="261" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="141" t="s">
@@ -9922,10 +9946,10 @@
       <c r="HI19" s="27"/>
       <c r="HJ19" s="27"/>
       <c r="HK19" s="27"/>
-      <c r="HL19" s="271"/>
+      <c r="HL19" s="249"/>
     </row>
-    <row r="20" spans="2:220" ht="17.25" thickBot="1">
-      <c r="B20" s="238"/>
+    <row r="20" spans="2:220" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="261"/>
       <c r="C20" s="144" t="s">
         <v>9</v>
       </c>
@@ -10149,13 +10173,13 @@
       <c r="HI20" s="26"/>
       <c r="HJ20" s="26"/>
       <c r="HK20" s="26"/>
-      <c r="HL20" s="272"/>
+      <c r="HL20" s="250"/>
     </row>
-    <row r="21" spans="2:220">
-      <c r="B21" s="237" t="s">
+    <row r="21" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B21" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="240" t="s">
+      <c r="C21" s="277" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="147" t="s">
@@ -10378,11 +10402,11 @@
       <c r="HI21" s="28"/>
       <c r="HJ21" s="28"/>
       <c r="HK21" s="28"/>
-      <c r="HL21" s="273"/>
+      <c r="HL21" s="251"/>
     </row>
-    <row r="22" spans="2:220">
-      <c r="B22" s="238"/>
-      <c r="C22" s="241"/>
+    <row r="22" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B22" s="261"/>
+      <c r="C22" s="278"/>
       <c r="D22" s="147" t="s">
         <v>51</v>
       </c>
@@ -10603,11 +10627,11 @@
       <c r="HI22" s="30"/>
       <c r="HJ22" s="30"/>
       <c r="HK22" s="30"/>
-      <c r="HL22" s="274"/>
+      <c r="HL22" s="252"/>
     </row>
-    <row r="23" spans="2:220">
-      <c r="B23" s="238"/>
-      <c r="C23" s="241"/>
+    <row r="23" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B23" s="261"/>
+      <c r="C23" s="278"/>
       <c r="D23" s="147" t="s">
         <v>49</v>
       </c>
@@ -10828,11 +10852,11 @@
       <c r="HI23" s="30"/>
       <c r="HJ23" s="30"/>
       <c r="HK23" s="30"/>
-      <c r="HL23" s="274"/>
+      <c r="HL23" s="252"/>
     </row>
-    <row r="24" spans="2:220">
-      <c r="B24" s="238"/>
-      <c r="C24" s="242"/>
+    <row r="24" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B24" s="261"/>
+      <c r="C24" s="279"/>
       <c r="D24" s="147" t="s">
         <v>50</v>
       </c>
@@ -11053,11 +11077,11 @@
       <c r="HI24" s="30"/>
       <c r="HJ24" s="30"/>
       <c r="HK24" s="30"/>
-      <c r="HL24" s="274"/>
+      <c r="HL24" s="252"/>
     </row>
-    <row r="25" spans="2:220">
-      <c r="B25" s="238"/>
-      <c r="C25" s="243" t="s">
+    <row r="25" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B25" s="261"/>
+      <c r="C25" s="280" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="190" t="s">
@@ -11280,11 +11304,11 @@
       <c r="HI25" s="34"/>
       <c r="HJ25" s="34"/>
       <c r="HK25" s="34"/>
-      <c r="HL25" s="275"/>
+      <c r="HL25" s="253"/>
     </row>
-    <row r="26" spans="2:220">
-      <c r="B26" s="238"/>
-      <c r="C26" s="243"/>
+    <row r="26" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B26" s="261"/>
+      <c r="C26" s="280"/>
       <c r="D26" s="142" t="s">
         <v>66</v>
       </c>
@@ -11505,11 +11529,11 @@
       <c r="HI26" s="30"/>
       <c r="HJ26" s="30"/>
       <c r="HK26" s="30"/>
-      <c r="HL26" s="274"/>
+      <c r="HL26" s="252"/>
     </row>
-    <row r="27" spans="2:220">
-      <c r="B27" s="238"/>
-      <c r="C27" s="243"/>
+    <row r="27" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B27" s="261"/>
+      <c r="C27" s="280"/>
       <c r="D27" s="142" t="s">
         <v>67</v>
       </c>
@@ -11730,11 +11754,11 @@
       <c r="HI27" s="30"/>
       <c r="HJ27" s="30"/>
       <c r="HK27" s="30"/>
-      <c r="HL27" s="274"/>
+      <c r="HL27" s="252"/>
     </row>
-    <row r="28" spans="2:220">
-      <c r="B28" s="238"/>
-      <c r="C28" s="243"/>
+    <row r="28" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B28" s="261"/>
+      <c r="C28" s="280"/>
       <c r="D28" s="142" t="s">
         <v>68</v>
       </c>
@@ -11955,11 +11979,11 @@
       <c r="HI28" s="30"/>
       <c r="HJ28" s="30"/>
       <c r="HK28" s="30"/>
-      <c r="HL28" s="274"/>
+      <c r="HL28" s="252"/>
     </row>
-    <row r="29" spans="2:220">
-      <c r="B29" s="238"/>
-      <c r="C29" s="243"/>
+    <row r="29" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B29" s="261"/>
+      <c r="C29" s="280"/>
       <c r="D29" s="142" t="s">
         <v>69</v>
       </c>
@@ -12180,11 +12204,11 @@
       <c r="HI29" s="30"/>
       <c r="HJ29" s="30"/>
       <c r="HK29" s="30"/>
-      <c r="HL29" s="274"/>
+      <c r="HL29" s="252"/>
     </row>
-    <row r="30" spans="2:220">
-      <c r="B30" s="238"/>
-      <c r="C30" s="243"/>
+    <row r="30" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B30" s="261"/>
+      <c r="C30" s="280"/>
       <c r="D30" s="142" t="s">
         <v>70</v>
       </c>
@@ -12405,11 +12429,11 @@
       <c r="HI30" s="30"/>
       <c r="HJ30" s="30"/>
       <c r="HK30" s="30"/>
-      <c r="HL30" s="274"/>
+      <c r="HL30" s="252"/>
     </row>
-    <row r="31" spans="2:220">
-      <c r="B31" s="238"/>
-      <c r="C31" s="243"/>
+    <row r="31" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B31" s="261"/>
+      <c r="C31" s="280"/>
       <c r="D31" s="142" t="s">
         <v>71</v>
       </c>
@@ -12630,11 +12654,11 @@
       <c r="HI31" s="30"/>
       <c r="HJ31" s="30"/>
       <c r="HK31" s="30"/>
-      <c r="HL31" s="274"/>
+      <c r="HL31" s="252"/>
     </row>
-    <row r="32" spans="2:220">
-      <c r="B32" s="238"/>
-      <c r="C32" s="243"/>
+    <row r="32" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B32" s="261"/>
+      <c r="C32" s="280"/>
       <c r="D32" s="142" t="s">
         <v>72</v>
       </c>
@@ -12855,11 +12879,11 @@
       <c r="HI32" s="30"/>
       <c r="HJ32" s="30"/>
       <c r="HK32" s="30"/>
-      <c r="HL32" s="274"/>
+      <c r="HL32" s="252"/>
     </row>
-    <row r="33" spans="2:220">
-      <c r="B33" s="238"/>
-      <c r="C33" s="243"/>
+    <row r="33" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B33" s="261"/>
+      <c r="C33" s="280"/>
       <c r="D33" s="142" t="s">
         <v>73</v>
       </c>
@@ -13080,11 +13104,11 @@
       <c r="HI33" s="30"/>
       <c r="HJ33" s="30"/>
       <c r="HK33" s="30"/>
-      <c r="HL33" s="274"/>
+      <c r="HL33" s="252"/>
     </row>
-    <row r="34" spans="2:220">
-      <c r="B34" s="238"/>
-      <c r="C34" s="243"/>
+    <row r="34" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B34" s="261"/>
+      <c r="C34" s="280"/>
       <c r="D34" s="142" t="s">
         <v>74</v>
       </c>
@@ -13305,11 +13329,11 @@
       <c r="HI34" s="30"/>
       <c r="HJ34" s="30"/>
       <c r="HK34" s="30"/>
-      <c r="HL34" s="274"/>
+      <c r="HL34" s="252"/>
     </row>
-    <row r="35" spans="2:220">
-      <c r="B35" s="238"/>
-      <c r="C35" s="243"/>
+    <row r="35" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B35" s="261"/>
+      <c r="C35" s="280"/>
       <c r="D35" s="142" t="s">
         <v>75</v>
       </c>
@@ -13530,11 +13554,11 @@
       <c r="HI35" s="30"/>
       <c r="HJ35" s="30"/>
       <c r="HK35" s="30"/>
-      <c r="HL35" s="274"/>
+      <c r="HL35" s="252"/>
     </row>
-    <row r="36" spans="2:220">
-      <c r="B36" s="238"/>
-      <c r="C36" s="243"/>
+    <row r="36" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B36" s="261"/>
+      <c r="C36" s="280"/>
       <c r="D36" s="142" t="s">
         <v>76</v>
       </c>
@@ -13755,11 +13779,11 @@
       <c r="HI36" s="30"/>
       <c r="HJ36" s="30"/>
       <c r="HK36" s="30"/>
-      <c r="HL36" s="274"/>
+      <c r="HL36" s="252"/>
     </row>
-    <row r="37" spans="2:220">
-      <c r="B37" s="238"/>
-      <c r="C37" s="243"/>
+    <row r="37" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B37" s="261"/>
+      <c r="C37" s="280"/>
       <c r="D37" s="142" t="s">
         <v>77</v>
       </c>
@@ -13980,11 +14004,11 @@
       <c r="HI37" s="30"/>
       <c r="HJ37" s="30"/>
       <c r="HK37" s="30"/>
-      <c r="HL37" s="274"/>
+      <c r="HL37" s="252"/>
     </row>
-    <row r="38" spans="2:220">
-      <c r="B38" s="238"/>
-      <c r="C38" s="243"/>
+    <row r="38" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B38" s="261"/>
+      <c r="C38" s="280"/>
       <c r="D38" s="142" t="s">
         <v>78</v>
       </c>
@@ -14205,11 +14229,11 @@
       <c r="HI38" s="30"/>
       <c r="HJ38" s="30"/>
       <c r="HK38" s="30"/>
-      <c r="HL38" s="274"/>
+      <c r="HL38" s="252"/>
     </row>
-    <row r="39" spans="2:220">
-      <c r="B39" s="238"/>
-      <c r="C39" s="243"/>
+    <row r="39" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B39" s="261"/>
+      <c r="C39" s="280"/>
       <c r="D39" s="142" t="s">
         <v>79</v>
       </c>
@@ -14430,11 +14454,11 @@
       <c r="HI39" s="30"/>
       <c r="HJ39" s="30"/>
       <c r="HK39" s="30"/>
-      <c r="HL39" s="274"/>
+      <c r="HL39" s="252"/>
     </row>
-    <row r="40" spans="2:220">
-      <c r="B40" s="238"/>
-      <c r="C40" s="243"/>
+    <row r="40" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B40" s="261"/>
+      <c r="C40" s="280"/>
       <c r="D40" s="142" t="s">
         <v>80</v>
       </c>
@@ -14655,11 +14679,11 @@
       <c r="HI40" s="30"/>
       <c r="HJ40" s="30"/>
       <c r="HK40" s="30"/>
-      <c r="HL40" s="274"/>
+      <c r="HL40" s="252"/>
     </row>
-    <row r="41" spans="2:220">
-      <c r="B41" s="238"/>
-      <c r="C41" s="243"/>
+    <row r="41" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B41" s="261"/>
+      <c r="C41" s="280"/>
       <c r="D41" s="142" t="s">
         <v>81</v>
       </c>
@@ -14880,11 +14904,11 @@
       <c r="HI41" s="30"/>
       <c r="HJ41" s="30"/>
       <c r="HK41" s="30"/>
-      <c r="HL41" s="274"/>
+      <c r="HL41" s="252"/>
     </row>
-    <row r="42" spans="2:220">
-      <c r="B42" s="238"/>
-      <c r="C42" s="243"/>
+    <row r="42" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B42" s="261"/>
+      <c r="C42" s="280"/>
       <c r="D42" s="142" t="s">
         <v>82</v>
       </c>
@@ -15105,11 +15129,11 @@
       <c r="HI42" s="30"/>
       <c r="HJ42" s="30"/>
       <c r="HK42" s="30"/>
-      <c r="HL42" s="274"/>
+      <c r="HL42" s="252"/>
     </row>
-    <row r="43" spans="2:220">
-      <c r="B43" s="238"/>
-      <c r="C43" s="243"/>
+    <row r="43" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B43" s="261"/>
+      <c r="C43" s="280"/>
       <c r="D43" s="142" t="s">
         <v>83</v>
       </c>
@@ -15330,11 +15354,11 @@
       <c r="HI43" s="30"/>
       <c r="HJ43" s="30"/>
       <c r="HK43" s="30"/>
-      <c r="HL43" s="274"/>
+      <c r="HL43" s="252"/>
     </row>
-    <row r="44" spans="2:220">
-      <c r="B44" s="238"/>
-      <c r="C44" s="243"/>
+    <row r="44" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B44" s="261"/>
+      <c r="C44" s="280"/>
       <c r="D44" s="142" t="s">
         <v>84</v>
       </c>
@@ -15555,11 +15579,11 @@
       <c r="HI44" s="30"/>
       <c r="HJ44" s="30"/>
       <c r="HK44" s="30"/>
-      <c r="HL44" s="274"/>
+      <c r="HL44" s="252"/>
     </row>
-    <row r="45" spans="2:220">
-      <c r="B45" s="238"/>
-      <c r="C45" s="243"/>
+    <row r="45" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B45" s="261"/>
+      <c r="C45" s="280"/>
       <c r="D45" s="142" t="s">
         <v>85</v>
       </c>
@@ -15780,11 +15804,11 @@
       <c r="HI45" s="30"/>
       <c r="HJ45" s="30"/>
       <c r="HK45" s="30"/>
-      <c r="HL45" s="274"/>
+      <c r="HL45" s="252"/>
     </row>
-    <row r="46" spans="2:220">
-      <c r="B46" s="238"/>
-      <c r="C46" s="243"/>
+    <row r="46" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B46" s="261"/>
+      <c r="C46" s="280"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="105"/>
@@ -16001,11 +16025,11 @@
       <c r="HI46" s="30"/>
       <c r="HJ46" s="30"/>
       <c r="HK46" s="30"/>
-      <c r="HL46" s="274"/>
+      <c r="HL46" s="252"/>
     </row>
-    <row r="47" spans="2:220">
-      <c r="B47" s="238"/>
-      <c r="C47" s="243"/>
+    <row r="47" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B47" s="261"/>
+      <c r="C47" s="280"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="105"/>
@@ -16222,11 +16246,11 @@
       <c r="HI47" s="30"/>
       <c r="HJ47" s="30"/>
       <c r="HK47" s="30"/>
-      <c r="HL47" s="274"/>
+      <c r="HL47" s="252"/>
     </row>
-    <row r="48" spans="2:220">
-      <c r="B48" s="238"/>
-      <c r="C48" s="243"/>
+    <row r="48" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B48" s="261"/>
+      <c r="C48" s="280"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="121"/>
@@ -16443,11 +16467,11 @@
       <c r="HI48" s="33"/>
       <c r="HJ48" s="33"/>
       <c r="HK48" s="33"/>
-      <c r="HL48" s="276"/>
+      <c r="HL48" s="254"/>
     </row>
-    <row r="49" spans="2:220">
-      <c r="B49" s="238"/>
-      <c r="C49" s="244" t="s">
+    <row r="49" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B49" s="261"/>
+      <c r="C49" s="272" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="190" t="s">
@@ -16670,11 +16694,11 @@
       <c r="HI49" s="34"/>
       <c r="HJ49" s="34"/>
       <c r="HK49" s="34"/>
-      <c r="HL49" s="275"/>
+      <c r="HL49" s="253"/>
     </row>
-    <row r="50" spans="2:220">
-      <c r="B50" s="238"/>
-      <c r="C50" s="244"/>
+    <row r="50" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B50" s="261"/>
+      <c r="C50" s="272"/>
       <c r="D50" s="142" t="s">
         <v>53</v>
       </c>
@@ -16895,11 +16919,11 @@
       <c r="HI50" s="30"/>
       <c r="HJ50" s="30"/>
       <c r="HK50" s="30"/>
-      <c r="HL50" s="274"/>
+      <c r="HL50" s="252"/>
     </row>
-    <row r="51" spans="2:220">
-      <c r="B51" s="238"/>
-      <c r="C51" s="244"/>
+    <row r="51" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B51" s="261"/>
+      <c r="C51" s="272"/>
       <c r="D51" s="142" t="s">
         <v>55</v>
       </c>
@@ -17120,11 +17144,11 @@
       <c r="HI51" s="30"/>
       <c r="HJ51" s="30"/>
       <c r="HK51" s="30"/>
-      <c r="HL51" s="274"/>
+      <c r="HL51" s="252"/>
     </row>
-    <row r="52" spans="2:220">
-      <c r="B52" s="238"/>
-      <c r="C52" s="244"/>
+    <row r="52" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B52" s="261"/>
+      <c r="C52" s="272"/>
       <c r="D52" s="142" t="s">
         <v>56</v>
       </c>
@@ -17345,11 +17369,11 @@
       <c r="HI52" s="30"/>
       <c r="HJ52" s="30"/>
       <c r="HK52" s="30"/>
-      <c r="HL52" s="274"/>
+      <c r="HL52" s="252"/>
     </row>
-    <row r="53" spans="2:220">
-      <c r="B53" s="238"/>
-      <c r="C53" s="244"/>
+    <row r="53" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B53" s="261"/>
+      <c r="C53" s="272"/>
       <c r="D53" s="142" t="s">
         <v>59</v>
       </c>
@@ -17570,11 +17594,11 @@
       <c r="HI53" s="30"/>
       <c r="HJ53" s="30"/>
       <c r="HK53" s="30"/>
-      <c r="HL53" s="274"/>
+      <c r="HL53" s="252"/>
     </row>
-    <row r="54" spans="2:220">
-      <c r="B54" s="238"/>
-      <c r="C54" s="244"/>
+    <row r="54" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B54" s="261"/>
+      <c r="C54" s="272"/>
       <c r="D54" s="142" t="s">
         <v>60</v>
       </c>
@@ -17795,11 +17819,11 @@
       <c r="HI54" s="30"/>
       <c r="HJ54" s="30"/>
       <c r="HK54" s="30"/>
-      <c r="HL54" s="274"/>
+      <c r="HL54" s="252"/>
     </row>
-    <row r="55" spans="2:220">
-      <c r="B55" s="238"/>
-      <c r="C55" s="244"/>
+    <row r="55" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B55" s="261"/>
+      <c r="C55" s="272"/>
       <c r="D55" s="142" t="s">
         <v>61</v>
       </c>
@@ -18020,11 +18044,11 @@
       <c r="HI55" s="30"/>
       <c r="HJ55" s="30"/>
       <c r="HK55" s="30"/>
-      <c r="HL55" s="274"/>
+      <c r="HL55" s="252"/>
     </row>
-    <row r="56" spans="2:220">
-      <c r="B56" s="238"/>
-      <c r="C56" s="244"/>
+    <row r="56" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B56" s="261"/>
+      <c r="C56" s="272"/>
       <c r="D56" s="142" t="s">
         <v>62</v>
       </c>
@@ -18245,11 +18269,11 @@
       <c r="HI56" s="30"/>
       <c r="HJ56" s="30"/>
       <c r="HK56" s="30"/>
-      <c r="HL56" s="274"/>
+      <c r="HL56" s="252"/>
     </row>
-    <row r="57" spans="2:220">
-      <c r="B57" s="238"/>
-      <c r="C57" s="244"/>
+    <row r="57" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B57" s="261"/>
+      <c r="C57" s="272"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
       <c r="F57" s="121"/>
@@ -18466,11 +18490,11 @@
       <c r="HI57" s="33"/>
       <c r="HJ57" s="33"/>
       <c r="HK57" s="33"/>
-      <c r="HL57" s="276"/>
+      <c r="HL57" s="254"/>
     </row>
-    <row r="58" spans="2:220">
-      <c r="B58" s="238"/>
-      <c r="C58" s="257" t="s">
+    <row r="58" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B58" s="261"/>
+      <c r="C58" s="270" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="190" t="s">
@@ -18693,11 +18717,11 @@
       <c r="HI58" s="34"/>
       <c r="HJ58" s="34"/>
       <c r="HK58" s="34"/>
-      <c r="HL58" s="275"/>
+      <c r="HL58" s="253"/>
     </row>
-    <row r="59" spans="2:220">
-      <c r="B59" s="238"/>
-      <c r="C59" s="256"/>
+    <row r="59" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B59" s="261"/>
+      <c r="C59" s="269"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="105"/>
@@ -18914,11 +18938,11 @@
       <c r="HI59" s="30"/>
       <c r="HJ59" s="30"/>
       <c r="HK59" s="30"/>
-      <c r="HL59" s="274"/>
+      <c r="HL59" s="252"/>
     </row>
-    <row r="60" spans="2:220">
-      <c r="B60" s="238"/>
-      <c r="C60" s="245"/>
+    <row r="60" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B60" s="261"/>
+      <c r="C60" s="271"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="121"/>
@@ -19135,11 +19159,11 @@
       <c r="HI60" s="33"/>
       <c r="HJ60" s="33"/>
       <c r="HK60" s="33"/>
-      <c r="HL60" s="276"/>
+      <c r="HL60" s="254"/>
     </row>
-    <row r="61" spans="2:220">
-      <c r="B61" s="238"/>
-      <c r="C61" s="245"/>
+    <row r="61" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B61" s="261"/>
+      <c r="C61" s="271"/>
       <c r="D61" s="190" t="s">
         <v>57</v>
       </c>
@@ -19360,11 +19384,11 @@
       <c r="HI61" s="30"/>
       <c r="HJ61" s="30"/>
       <c r="HK61" s="30"/>
-      <c r="HL61" s="274"/>
+      <c r="HL61" s="252"/>
     </row>
-    <row r="62" spans="2:220">
-      <c r="B62" s="238"/>
-      <c r="C62" s="243"/>
+    <row r="62" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B62" s="261"/>
+      <c r="C62" s="280"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="105"/>
@@ -19581,11 +19605,11 @@
       <c r="HI62" s="30"/>
       <c r="HJ62" s="30"/>
       <c r="HK62" s="30"/>
-      <c r="HL62" s="274"/>
+      <c r="HL62" s="252"/>
     </row>
-    <row r="63" spans="2:220" ht="17.25" thickBot="1">
-      <c r="B63" s="239"/>
-      <c r="C63" s="246"/>
+    <row r="63" spans="2:220" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="273"/>
+      <c r="C63" s="281"/>
       <c r="D63" s="12"/>
       <c r="E63" s="8"/>
       <c r="F63" s="92"/>
@@ -19802,13 +19826,13 @@
       <c r="HI63" s="26"/>
       <c r="HJ63" s="26"/>
       <c r="HK63" s="26"/>
-      <c r="HL63" s="272"/>
+      <c r="HL63" s="250"/>
     </row>
-    <row r="64" spans="2:220">
-      <c r="B64" s="251" t="s">
+    <row r="64" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B64" s="275" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="244" t="s">
+      <c r="C64" s="272" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="142" t="s">
@@ -20031,11 +20055,11 @@
       <c r="HI64" s="28"/>
       <c r="HJ64" s="28"/>
       <c r="HK64" s="28"/>
-      <c r="HL64" s="273"/>
+      <c r="HL64" s="251"/>
     </row>
-    <row r="65" spans="2:220 16383:16383">
-      <c r="B65" s="252"/>
-      <c r="C65" s="244"/>
+    <row r="65" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B65" s="276"/>
+      <c r="C65" s="272"/>
       <c r="D65" s="142" t="s">
         <v>37</v>
       </c>
@@ -20256,11 +20280,11 @@
       <c r="HI65" s="30"/>
       <c r="HJ65" s="30"/>
       <c r="HK65" s="30"/>
-      <c r="HL65" s="274"/>
+      <c r="HL65" s="252"/>
     </row>
-    <row r="66" spans="2:220 16383:16383">
-      <c r="B66" s="252"/>
-      <c r="C66" s="244"/>
+    <row r="66" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B66" s="276"/>
+      <c r="C66" s="272"/>
       <c r="D66" s="142" t="s">
         <v>38</v>
       </c>
@@ -20481,11 +20505,11 @@
       <c r="HI66" s="30"/>
       <c r="HJ66" s="30"/>
       <c r="HK66" s="30"/>
-      <c r="HL66" s="274"/>
+      <c r="HL66" s="252"/>
     </row>
-    <row r="67" spans="2:220 16383:16383">
-      <c r="B67" s="252"/>
-      <c r="C67" s="244"/>
+    <row r="67" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B67" s="276"/>
+      <c r="C67" s="272"/>
       <c r="D67" s="142" t="s">
         <v>39</v>
       </c>
@@ -20706,11 +20730,11 @@
       <c r="HI67" s="30"/>
       <c r="HJ67" s="30"/>
       <c r="HK67" s="30"/>
-      <c r="HL67" s="274"/>
+      <c r="HL67" s="252"/>
     </row>
-    <row r="68" spans="2:220 16383:16383">
-      <c r="B68" s="252"/>
-      <c r="C68" s="244"/>
+    <row r="68" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B68" s="276"/>
+      <c r="C68" s="272"/>
       <c r="D68" s="142" t="s">
         <v>41</v>
       </c>
@@ -20931,11 +20955,11 @@
       <c r="HI68" s="30"/>
       <c r="HJ68" s="30"/>
       <c r="HK68" s="30"/>
-      <c r="HL68" s="274"/>
+      <c r="HL68" s="252"/>
     </row>
-    <row r="69" spans="2:220 16383:16383">
-      <c r="B69" s="252"/>
-      <c r="C69" s="244"/>
+    <row r="69" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B69" s="276"/>
+      <c r="C69" s="272"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="132"/>
@@ -21152,11 +21176,11 @@
       <c r="HI69" s="33"/>
       <c r="HJ69" s="33"/>
       <c r="HK69" s="33"/>
-      <c r="HL69" s="276"/>
+      <c r="HL69" s="254"/>
     </row>
-    <row r="70" spans="2:220 16383:16383">
-      <c r="B70" s="252"/>
-      <c r="C70" s="250" t="s">
+    <row r="70" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B70" s="276"/>
+      <c r="C70" s="266" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -21379,11 +21403,11 @@
       <c r="HI70" s="30"/>
       <c r="HJ70" s="30"/>
       <c r="HK70" s="30"/>
-      <c r="HL70" s="274"/>
+      <c r="HL70" s="252"/>
     </row>
-    <row r="71" spans="2:220 16383:16383">
-      <c r="B71" s="252"/>
-      <c r="C71" s="250"/>
+    <row r="71" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B71" s="276"/>
+      <c r="C71" s="266"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="133"/>
@@ -21600,11 +21624,11 @@
       <c r="HI71" s="30"/>
       <c r="HJ71" s="30"/>
       <c r="HK71" s="30"/>
-      <c r="HL71" s="274"/>
+      <c r="HL71" s="252"/>
     </row>
-    <row r="72" spans="2:220 16383:16383">
-      <c r="B72" s="252"/>
-      <c r="C72" s="250"/>
+    <row r="72" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B72" s="276"/>
+      <c r="C72" s="266"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="133"/>
@@ -21821,11 +21845,11 @@
       <c r="HI72" s="30"/>
       <c r="HJ72" s="30"/>
       <c r="HK72" s="30"/>
-      <c r="HL72" s="274"/>
+      <c r="HL72" s="252"/>
     </row>
-    <row r="73" spans="2:220 16383:16383" ht="17.25" thickBot="1">
-      <c r="B73" s="252"/>
-      <c r="C73" s="250"/>
+    <row r="73" spans="2:220 16383:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="276"/>
+      <c r="C73" s="266"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="F73" s="134"/>
@@ -22042,13 +22066,13 @@
       <c r="HI73" s="26"/>
       <c r="HJ73" s="26"/>
       <c r="HK73" s="26"/>
-      <c r="HL73" s="272"/>
+      <c r="HL73" s="250"/>
     </row>
-    <row r="74" spans="2:220 16383:16383">
-      <c r="B74" s="237" t="s">
+    <row r="74" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B74" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="247" t="s">
+      <c r="C74" s="263" t="s">
         <v>34</v>
       </c>
       <c r="D74" s="227" t="s">
@@ -22271,12 +22295,12 @@
       <c r="HI74" s="29"/>
       <c r="HJ74" s="29"/>
       <c r="HK74" s="29"/>
-      <c r="HL74" s="277"/>
+      <c r="HL74" s="255"/>
       <c r="XFC74" s="32"/>
     </row>
-    <row r="75" spans="2:220 16383:16383">
-      <c r="B75" s="238"/>
-      <c r="C75" s="244"/>
+    <row r="75" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B75" s="261"/>
+      <c r="C75" s="272"/>
       <c r="D75" s="229" t="s">
         <v>115</v>
       </c>
@@ -22497,12 +22521,12 @@
       <c r="HI75" s="31"/>
       <c r="HJ75" s="31"/>
       <c r="HK75" s="31"/>
-      <c r="HL75" s="278"/>
+      <c r="HL75" s="256"/>
       <c r="XFC75" s="202"/>
     </row>
-    <row r="76" spans="2:220 16383:16383">
-      <c r="B76" s="238"/>
-      <c r="C76" s="244"/>
+    <row r="76" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B76" s="261"/>
+      <c r="C76" s="272"/>
       <c r="D76" s="229" t="s">
         <v>116</v>
       </c>
@@ -22723,12 +22747,12 @@
       <c r="HI76" s="31"/>
       <c r="HJ76" s="31"/>
       <c r="HK76" s="31"/>
-      <c r="HL76" s="278"/>
+      <c r="HL76" s="256"/>
       <c r="XFC76" s="202"/>
     </row>
-    <row r="77" spans="2:220 16383:16383">
-      <c r="B77" s="238"/>
-      <c r="C77" s="244"/>
+    <row r="77" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B77" s="261"/>
+      <c r="C77" s="272"/>
       <c r="D77" s="10"/>
       <c r="E77" s="17"/>
       <c r="F77" s="133"/>
@@ -22945,12 +22969,12 @@
       <c r="HI77" s="31"/>
       <c r="HJ77" s="31"/>
       <c r="HK77" s="31"/>
-      <c r="HL77" s="278"/>
+      <c r="HL77" s="256"/>
       <c r="XFC77" s="202"/>
     </row>
-    <row r="78" spans="2:220 16383:16383">
-      <c r="B78" s="238"/>
-      <c r="C78" s="248"/>
+    <row r="78" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B78" s="261"/>
+      <c r="C78" s="264"/>
       <c r="D78" s="10"/>
       <c r="E78" s="17"/>
       <c r="F78" s="132"/>
@@ -23167,11 +23191,11 @@
       <c r="HI78" s="32"/>
       <c r="HJ78" s="32"/>
       <c r="HK78" s="32"/>
-      <c r="HL78" s="279"/>
+      <c r="HL78" s="257"/>
     </row>
-    <row r="79" spans="2:220 16383:16383">
-      <c r="B79" s="238"/>
-      <c r="C79" s="248" t="s">
+    <row r="79" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B79" s="261"/>
+      <c r="C79" s="264" t="s">
         <v>117</v>
       </c>
       <c r="D79" s="231" t="s">
@@ -23394,11 +23418,11 @@
       <c r="HI79" s="35"/>
       <c r="HJ79" s="35"/>
       <c r="HK79" s="35"/>
-      <c r="HL79" s="280"/>
+      <c r="HL79" s="258"/>
     </row>
-    <row r="80" spans="2:220 16383:16383">
-      <c r="B80" s="238"/>
-      <c r="C80" s="244"/>
+    <row r="80" spans="2:220 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B80" s="261"/>
+      <c r="C80" s="272"/>
       <c r="D80" s="229" t="s">
         <v>118</v>
       </c>
@@ -23619,11 +23643,11 @@
       <c r="HI80" s="31"/>
       <c r="HJ80" s="31"/>
       <c r="HK80" s="31"/>
-      <c r="HL80" s="278"/>
+      <c r="HL80" s="256"/>
     </row>
-    <row r="81" spans="2:220">
-      <c r="B81" s="238"/>
-      <c r="C81" s="244"/>
+    <row r="81" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B81" s="261"/>
+      <c r="C81" s="272"/>
       <c r="D81" s="10"/>
       <c r="E81" s="17"/>
       <c r="F81" s="133"/>
@@ -23840,11 +23864,11 @@
       <c r="HI81" s="31"/>
       <c r="HJ81" s="31"/>
       <c r="HK81" s="31"/>
-      <c r="HL81" s="278"/>
+      <c r="HL81" s="256"/>
     </row>
-    <row r="82" spans="2:220">
-      <c r="B82" s="238"/>
-      <c r="C82" s="244"/>
+    <row r="82" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B82" s="261"/>
+      <c r="C82" s="272"/>
       <c r="D82" s="10"/>
       <c r="E82" s="17"/>
       <c r="F82" s="133"/>
@@ -24061,11 +24085,11 @@
       <c r="HI82" s="31"/>
       <c r="HJ82" s="31"/>
       <c r="HK82" s="31"/>
-      <c r="HL82" s="278"/>
+      <c r="HL82" s="256"/>
     </row>
-    <row r="83" spans="2:220">
-      <c r="B83" s="238"/>
-      <c r="C83" s="244"/>
+    <row r="83" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B83" s="261"/>
+      <c r="C83" s="272"/>
       <c r="D83" s="10"/>
       <c r="E83" s="17"/>
       <c r="F83" s="133"/>
@@ -24282,11 +24306,11 @@
       <c r="HI83" s="31"/>
       <c r="HJ83" s="31"/>
       <c r="HK83" s="31"/>
-      <c r="HL83" s="278"/>
+      <c r="HL83" s="256"/>
     </row>
-    <row r="84" spans="2:220">
-      <c r="B84" s="238"/>
-      <c r="C84" s="249"/>
+    <row r="84" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B84" s="261"/>
+      <c r="C84" s="265"/>
       <c r="D84" s="233" t="s">
         <v>114</v>
       </c>
@@ -24507,11 +24531,11 @@
       <c r="HI84" s="32"/>
       <c r="HJ84" s="32"/>
       <c r="HK84" s="32"/>
-      <c r="HL84" s="279"/>
+      <c r="HL84" s="257"/>
     </row>
-    <row r="85" spans="2:220">
-      <c r="B85" s="238"/>
-      <c r="C85" s="250"/>
+    <row r="85" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B85" s="261"/>
+      <c r="C85" s="266"/>
       <c r="D85" s="9"/>
       <c r="E85" s="18"/>
       <c r="F85" s="137"/>
@@ -24728,11 +24752,11 @@
       <c r="HI85" s="34"/>
       <c r="HJ85" s="34"/>
       <c r="HK85" s="34"/>
-      <c r="HL85" s="275"/>
+      <c r="HL85" s="253"/>
     </row>
-    <row r="86" spans="2:220" ht="17.25" thickBot="1">
-      <c r="B86" s="239"/>
-      <c r="C86" s="250"/>
+    <row r="86" spans="2:220" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="273"/>
+      <c r="C86" s="266"/>
       <c r="D86" s="10"/>
       <c r="E86" s="17"/>
       <c r="F86" s="134"/>
@@ -24949,13 +24973,13 @@
       <c r="HI86" s="26"/>
       <c r="HJ86" s="26"/>
       <c r="HK86" s="26"/>
-      <c r="HL86" s="272"/>
+      <c r="HL86" s="250"/>
     </row>
-    <row r="87" spans="2:220">
-      <c r="B87" s="237" t="s">
+    <row r="87" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B87" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="247" t="s">
+      <c r="C87" s="263" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="15"/>
@@ -25174,11 +25198,11 @@
       <c r="HI87" s="29"/>
       <c r="HJ87" s="29"/>
       <c r="HK87" s="29"/>
-      <c r="HL87" s="277"/>
+      <c r="HL87" s="255"/>
     </row>
-    <row r="88" spans="2:220">
-      <c r="B88" s="238"/>
-      <c r="C88" s="248"/>
+    <row r="88" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B88" s="261"/>
+      <c r="C88" s="264"/>
       <c r="D88" s="10"/>
       <c r="E88" s="17"/>
       <c r="F88" s="133"/>
@@ -25395,11 +25419,11 @@
       <c r="HI88" s="31"/>
       <c r="HJ88" s="31"/>
       <c r="HK88" s="31"/>
-      <c r="HL88" s="278"/>
+      <c r="HL88" s="256"/>
     </row>
-    <row r="89" spans="2:220">
-      <c r="B89" s="238"/>
-      <c r="C89" s="248" t="s">
+    <row r="89" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B89" s="261"/>
+      <c r="C89" s="264" t="s">
         <v>46</v>
       </c>
       <c r="D89" s="9"/>
@@ -25618,11 +25642,11 @@
       <c r="HI89" s="35"/>
       <c r="HJ89" s="35"/>
       <c r="HK89" s="35"/>
-      <c r="HL89" s="280"/>
+      <c r="HL89" s="258"/>
     </row>
-    <row r="90" spans="2:220">
-      <c r="B90" s="238"/>
-      <c r="C90" s="249"/>
+    <row r="90" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B90" s="261"/>
+      <c r="C90" s="265"/>
       <c r="D90" s="11"/>
       <c r="E90" s="19"/>
       <c r="F90" s="132"/>
@@ -25839,11 +25863,11 @@
       <c r="HI90" s="32"/>
       <c r="HJ90" s="32"/>
       <c r="HK90" s="32"/>
-      <c r="HL90" s="279"/>
+      <c r="HL90" s="257"/>
     </row>
-    <row r="91" spans="2:220">
-      <c r="B91" s="238"/>
-      <c r="C91" s="250"/>
+    <row r="91" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B91" s="261"/>
+      <c r="C91" s="266"/>
       <c r="D91" s="9"/>
       <c r="E91" s="18"/>
       <c r="F91" s="133"/>
@@ -26060,11 +26084,11 @@
       <c r="HI91" s="30"/>
       <c r="HJ91" s="30"/>
       <c r="HK91" s="30"/>
-      <c r="HL91" s="274"/>
+      <c r="HL91" s="252"/>
     </row>
-    <row r="92" spans="2:220" ht="17.25" thickBot="1">
-      <c r="B92" s="239"/>
-      <c r="C92" s="258"/>
+    <row r="92" spans="2:220" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="273"/>
+      <c r="C92" s="274"/>
       <c r="D92" s="20"/>
       <c r="E92" s="21"/>
       <c r="F92" s="134"/>
@@ -26281,13 +26305,13 @@
       <c r="HI92" s="26"/>
       <c r="HJ92" s="26"/>
       <c r="HK92" s="26"/>
-      <c r="HL92" s="272"/>
+      <c r="HL92" s="250"/>
     </row>
-    <row r="93" spans="2:220">
-      <c r="B93" s="237" t="s">
+    <row r="93" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B93" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="255" t="s">
+      <c r="C93" s="268" t="s">
         <v>35</v>
       </c>
       <c r="D93" s="235" t="s">
@@ -26510,11 +26534,11 @@
       <c r="HI93" s="28"/>
       <c r="HJ93" s="28"/>
       <c r="HK93" s="28"/>
-      <c r="HL93" s="273"/>
+      <c r="HL93" s="251"/>
     </row>
-    <row r="94" spans="2:220">
-      <c r="B94" s="238"/>
-      <c r="C94" s="256"/>
+    <row r="94" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B94" s="261"/>
+      <c r="C94" s="269"/>
       <c r="D94" s="142" t="s">
         <v>89</v>
       </c>
@@ -26735,11 +26759,11 @@
       <c r="HI94" s="30"/>
       <c r="HJ94" s="30"/>
       <c r="HK94" s="30"/>
-      <c r="HL94" s="274"/>
+      <c r="HL94" s="252"/>
     </row>
-    <row r="95" spans="2:220">
-      <c r="B95" s="238"/>
-      <c r="C95" s="256"/>
+    <row r="95" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B95" s="261"/>
+      <c r="C95" s="269"/>
       <c r="D95" s="142" t="s">
         <v>90</v>
       </c>
@@ -26960,11 +26984,11 @@
       <c r="HI95" s="30"/>
       <c r="HJ95" s="30"/>
       <c r="HK95" s="30"/>
-      <c r="HL95" s="274"/>
+      <c r="HL95" s="252"/>
     </row>
-    <row r="96" spans="2:220">
-      <c r="B96" s="238"/>
-      <c r="C96" s="256"/>
+    <row r="96" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B96" s="261"/>
+      <c r="C96" s="269"/>
       <c r="D96" s="142" t="s">
         <v>91</v>
       </c>
@@ -27185,11 +27209,11 @@
       <c r="HI96" s="30"/>
       <c r="HJ96" s="30"/>
       <c r="HK96" s="30"/>
-      <c r="HL96" s="274"/>
+      <c r="HL96" s="252"/>
     </row>
-    <row r="97" spans="2:220">
-      <c r="B97" s="238"/>
-      <c r="C97" s="256"/>
+    <row r="97" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B97" s="261"/>
+      <c r="C97" s="269"/>
       <c r="D97" s="142" t="s">
         <v>104</v>
       </c>
@@ -27410,11 +27434,11 @@
       <c r="HI97" s="30"/>
       <c r="HJ97" s="30"/>
       <c r="HK97" s="30"/>
-      <c r="HL97" s="274"/>
+      <c r="HL97" s="252"/>
     </row>
-    <row r="98" spans="2:220">
-      <c r="B98" s="238"/>
-      <c r="C98" s="256"/>
+    <row r="98" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B98" s="261"/>
+      <c r="C98" s="269"/>
       <c r="D98" s="142" t="s">
         <v>86</v>
       </c>
@@ -27635,11 +27659,11 @@
       <c r="HI98" s="30"/>
       <c r="HJ98" s="30"/>
       <c r="HK98" s="30"/>
-      <c r="HL98" s="274"/>
+      <c r="HL98" s="252"/>
     </row>
-    <row r="99" spans="2:220">
-      <c r="B99" s="238"/>
-      <c r="C99" s="256"/>
+    <row r="99" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B99" s="261"/>
+      <c r="C99" s="269"/>
       <c r="D99" s="142" t="s">
         <v>87</v>
       </c>
@@ -27860,11 +27884,11 @@
       <c r="HI99" s="30"/>
       <c r="HJ99" s="30"/>
       <c r="HK99" s="30"/>
-      <c r="HL99" s="274"/>
+      <c r="HL99" s="252"/>
     </row>
-    <row r="100" spans="2:220">
-      <c r="B100" s="238"/>
-      <c r="C100" s="256"/>
+    <row r="100" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B100" s="261"/>
+      <c r="C100" s="269"/>
       <c r="D100" s="142" t="s">
         <v>113</v>
       </c>
@@ -28085,11 +28109,11 @@
       <c r="HI100" s="30"/>
       <c r="HJ100" s="30"/>
       <c r="HK100" s="30"/>
-      <c r="HL100" s="274"/>
+      <c r="HL100" s="252"/>
     </row>
-    <row r="101" spans="2:220">
-      <c r="B101" s="238"/>
-      <c r="C101" s="256"/>
+    <row r="101" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B101" s="261"/>
+      <c r="C101" s="269"/>
       <c r="D101" s="142" t="s">
         <v>119</v>
       </c>
@@ -28310,11 +28334,11 @@
       <c r="HI101" s="30"/>
       <c r="HJ101" s="30"/>
       <c r="HK101" s="30"/>
-      <c r="HL101" s="274"/>
+      <c r="HL101" s="252"/>
     </row>
-    <row r="102" spans="2:220">
-      <c r="B102" s="238"/>
-      <c r="C102" s="256"/>
+    <row r="102" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B102" s="261"/>
+      <c r="C102" s="269"/>
       <c r="D102" s="1" t="s">
         <v>92</v>
       </c>
@@ -28533,11 +28557,11 @@
       <c r="HI102" s="30"/>
       <c r="HJ102" s="30"/>
       <c r="HK102" s="30"/>
-      <c r="HL102" s="274"/>
+      <c r="HL102" s="252"/>
     </row>
-    <row r="103" spans="2:220">
-      <c r="B103" s="238"/>
-      <c r="C103" s="256"/>
+    <row r="103" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B103" s="261"/>
+      <c r="C103" s="269"/>
       <c r="D103" s="1" t="s">
         <v>93</v>
       </c>
@@ -28756,11 +28780,11 @@
       <c r="HI103" s="30"/>
       <c r="HJ103" s="30"/>
       <c r="HK103" s="30"/>
-      <c r="HL103" s="274"/>
+      <c r="HL103" s="252"/>
     </row>
-    <row r="104" spans="2:220">
-      <c r="B104" s="238"/>
-      <c r="C104" s="256"/>
+    <row r="104" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B104" s="261"/>
+      <c r="C104" s="269"/>
       <c r="D104" s="1" t="s">
         <v>94</v>
       </c>
@@ -28979,11 +29003,11 @@
       <c r="HI104" s="30"/>
       <c r="HJ104" s="30"/>
       <c r="HK104" s="30"/>
-      <c r="HL104" s="274"/>
+      <c r="HL104" s="252"/>
     </row>
-    <row r="105" spans="2:220">
-      <c r="B105" s="238"/>
-      <c r="C105" s="256"/>
+    <row r="105" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B105" s="261"/>
+      <c r="C105" s="269"/>
       <c r="D105" s="1" t="s">
         <v>95</v>
       </c>
@@ -29202,11 +29226,11 @@
       <c r="HI105" s="30"/>
       <c r="HJ105" s="30"/>
       <c r="HK105" s="30"/>
-      <c r="HL105" s="274"/>
+      <c r="HL105" s="252"/>
     </row>
-    <row r="106" spans="2:220">
-      <c r="B106" s="238"/>
-      <c r="C106" s="256"/>
+    <row r="106" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B106" s="261"/>
+      <c r="C106" s="269"/>
       <c r="D106" s="1" t="s">
         <v>96</v>
       </c>
@@ -29425,11 +29449,11 @@
       <c r="HI106" s="30"/>
       <c r="HJ106" s="30"/>
       <c r="HK106" s="30"/>
-      <c r="HL106" s="274"/>
+      <c r="HL106" s="252"/>
     </row>
-    <row r="107" spans="2:220">
-      <c r="B107" s="238"/>
-      <c r="C107" s="256"/>
+    <row r="107" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B107" s="261"/>
+      <c r="C107" s="269"/>
       <c r="D107" s="1" t="s">
         <v>97</v>
       </c>
@@ -29648,11 +29672,11 @@
       <c r="HI107" s="30"/>
       <c r="HJ107" s="30"/>
       <c r="HK107" s="30"/>
-      <c r="HL107" s="274"/>
+      <c r="HL107" s="252"/>
     </row>
-    <row r="108" spans="2:220">
-      <c r="B108" s="238"/>
-      <c r="C108" s="256"/>
+    <row r="108" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B108" s="261"/>
+      <c r="C108" s="269"/>
       <c r="D108" s="1" t="s">
         <v>98</v>
       </c>
@@ -29871,11 +29895,11 @@
       <c r="HI108" s="30"/>
       <c r="HJ108" s="30"/>
       <c r="HK108" s="30"/>
-      <c r="HL108" s="274"/>
+      <c r="HL108" s="252"/>
     </row>
-    <row r="109" spans="2:220">
-      <c r="B109" s="238"/>
-      <c r="C109" s="256"/>
+    <row r="109" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B109" s="261"/>
+      <c r="C109" s="269"/>
       <c r="D109" s="1" t="s">
         <v>99</v>
       </c>
@@ -30094,11 +30118,11 @@
       <c r="HI109" s="30"/>
       <c r="HJ109" s="30"/>
       <c r="HK109" s="30"/>
-      <c r="HL109" s="274"/>
+      <c r="HL109" s="252"/>
     </row>
-    <row r="110" spans="2:220">
-      <c r="B110" s="238"/>
-      <c r="C110" s="256"/>
+    <row r="110" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B110" s="261"/>
+      <c r="C110" s="269"/>
       <c r="D110" s="1" t="s">
         <v>100</v>
       </c>
@@ -30317,11 +30341,11 @@
       <c r="HI110" s="30"/>
       <c r="HJ110" s="30"/>
       <c r="HK110" s="30"/>
-      <c r="HL110" s="274"/>
+      <c r="HL110" s="252"/>
     </row>
-    <row r="111" spans="2:220">
-      <c r="B111" s="238"/>
-      <c r="C111" s="256"/>
+    <row r="111" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B111" s="261"/>
+      <c r="C111" s="269"/>
       <c r="D111" s="1" t="s">
         <v>101</v>
       </c>
@@ -30540,11 +30564,11 @@
       <c r="HI111" s="30"/>
       <c r="HJ111" s="30"/>
       <c r="HK111" s="30"/>
-      <c r="HL111" s="274"/>
+      <c r="HL111" s="252"/>
     </row>
-    <row r="112" spans="2:220">
-      <c r="B112" s="238"/>
-      <c r="C112" s="256"/>
+    <row r="112" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B112" s="261"/>
+      <c r="C112" s="269"/>
       <c r="D112" s="1" t="s">
         <v>102</v>
       </c>
@@ -30763,11 +30787,11 @@
       <c r="HI112" s="30"/>
       <c r="HJ112" s="30"/>
       <c r="HK112" s="30"/>
-      <c r="HL112" s="274"/>
+      <c r="HL112" s="252"/>
     </row>
-    <row r="113" spans="2:220">
-      <c r="B113" s="238"/>
-      <c r="C113" s="256"/>
+    <row r="113" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B113" s="261"/>
+      <c r="C113" s="269"/>
       <c r="D113" s="1" t="s">
         <v>103</v>
       </c>
@@ -30986,11 +31010,11 @@
       <c r="HI113" s="30"/>
       <c r="HJ113" s="30"/>
       <c r="HK113" s="30"/>
-      <c r="HL113" s="274"/>
+      <c r="HL113" s="252"/>
     </row>
-    <row r="114" spans="2:220">
-      <c r="B114" s="238"/>
-      <c r="C114" s="256"/>
+    <row r="114" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B114" s="261"/>
+      <c r="C114" s="269"/>
       <c r="D114" s="1" t="s">
         <v>105</v>
       </c>
@@ -31209,11 +31233,11 @@
       <c r="HI114" s="30"/>
       <c r="HJ114" s="30"/>
       <c r="HK114" s="30"/>
-      <c r="HL114" s="274"/>
+      <c r="HL114" s="252"/>
     </row>
-    <row r="115" spans="2:220">
-      <c r="B115" s="238"/>
-      <c r="C115" s="256"/>
+    <row r="115" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B115" s="261"/>
+      <c r="C115" s="269"/>
       <c r="D115" s="1" t="s">
         <v>106</v>
       </c>
@@ -31432,11 +31456,11 @@
       <c r="HI115" s="30"/>
       <c r="HJ115" s="30"/>
       <c r="HK115" s="30"/>
-      <c r="HL115" s="274"/>
+      <c r="HL115" s="252"/>
     </row>
-    <row r="116" spans="2:220">
-      <c r="B116" s="238"/>
-      <c r="C116" s="256"/>
+    <row r="116" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B116" s="261"/>
+      <c r="C116" s="269"/>
       <c r="D116" s="1" t="s">
         <v>107</v>
       </c>
@@ -31655,11 +31679,11 @@
       <c r="HI116" s="30"/>
       <c r="HJ116" s="30"/>
       <c r="HK116" s="30"/>
-      <c r="HL116" s="274"/>
+      <c r="HL116" s="252"/>
     </row>
-    <row r="117" spans="2:220">
-      <c r="B117" s="238"/>
-      <c r="C117" s="256"/>
+    <row r="117" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B117" s="261"/>
+      <c r="C117" s="269"/>
       <c r="D117" s="142" t="s">
         <v>110</v>
       </c>
@@ -31880,11 +31904,11 @@
       <c r="HI117" s="30"/>
       <c r="HJ117" s="30"/>
       <c r="HK117" s="30"/>
-      <c r="HL117" s="274"/>
+      <c r="HL117" s="252"/>
     </row>
-    <row r="118" spans="2:220">
-      <c r="B118" s="238"/>
-      <c r="C118" s="256"/>
+    <row r="118" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B118" s="261"/>
+      <c r="C118" s="269"/>
       <c r="D118" s="142" t="s">
         <v>111</v>
       </c>
@@ -32105,11 +32129,11 @@
       <c r="HI118" s="30"/>
       <c r="HJ118" s="30"/>
       <c r="HK118" s="30"/>
-      <c r="HL118" s="274"/>
+      <c r="HL118" s="252"/>
     </row>
-    <row r="119" spans="2:220">
-      <c r="B119" s="238"/>
-      <c r="C119" s="256"/>
+    <row r="119" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B119" s="261"/>
+      <c r="C119" s="269"/>
       <c r="D119" s="142" t="s">
         <v>112</v>
       </c>
@@ -32330,11 +32354,11 @@
       <c r="HI119" s="30"/>
       <c r="HJ119" s="30"/>
       <c r="HK119" s="30"/>
-      <c r="HL119" s="274"/>
+      <c r="HL119" s="252"/>
     </row>
-    <row r="120" spans="2:220">
-      <c r="B120" s="238"/>
-      <c r="C120" s="256"/>
+    <row r="120" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B120" s="261"/>
+      <c r="C120" s="269"/>
       <c r="D120" s="1"/>
       <c r="E120" s="2"/>
       <c r="F120" s="133"/>
@@ -32551,11 +32575,11 @@
       <c r="HI120" s="30"/>
       <c r="HJ120" s="30"/>
       <c r="HK120" s="30"/>
-      <c r="HL120" s="274"/>
+      <c r="HL120" s="252"/>
     </row>
-    <row r="121" spans="2:220">
-      <c r="B121" s="238"/>
-      <c r="C121" s="256"/>
+    <row r="121" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B121" s="261"/>
+      <c r="C121" s="269"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2"/>
       <c r="F121" s="133"/>
@@ -32772,11 +32796,11 @@
       <c r="HI121" s="30"/>
       <c r="HJ121" s="30"/>
       <c r="HK121" s="30"/>
-      <c r="HL121" s="274"/>
+      <c r="HL121" s="252"/>
     </row>
-    <row r="122" spans="2:220">
-      <c r="B122" s="238"/>
-      <c r="C122" s="256"/>
+    <row r="122" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B122" s="261"/>
+      <c r="C122" s="269"/>
       <c r="D122" s="1" t="s">
         <v>108</v>
       </c>
@@ -32995,11 +33019,11 @@
       <c r="HI122" s="30"/>
       <c r="HJ122" s="30"/>
       <c r="HK122" s="30"/>
-      <c r="HL122" s="274"/>
+      <c r="HL122" s="252"/>
     </row>
-    <row r="123" spans="2:220">
-      <c r="B123" s="238"/>
-      <c r="C123" s="256"/>
+    <row r="123" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B123" s="261"/>
+      <c r="C123" s="269"/>
       <c r="D123" s="1" t="s">
         <v>109</v>
       </c>
@@ -33218,11 +33242,11 @@
       <c r="HI123" s="30"/>
       <c r="HJ123" s="30"/>
       <c r="HK123" s="30"/>
-      <c r="HL123" s="274"/>
+      <c r="HL123" s="252"/>
     </row>
-    <row r="124" spans="2:220">
-      <c r="B124" s="238"/>
-      <c r="C124" s="256"/>
+    <row r="124" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B124" s="261"/>
+      <c r="C124" s="269"/>
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
       <c r="F124" s="133"/>
@@ -33439,11 +33463,11 @@
       <c r="HI124" s="30"/>
       <c r="HJ124" s="30"/>
       <c r="HK124" s="30"/>
-      <c r="HL124" s="274"/>
+      <c r="HL124" s="252"/>
     </row>
-    <row r="125" spans="2:220">
-      <c r="B125" s="238"/>
-      <c r="C125" s="256"/>
+    <row r="125" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B125" s="261"/>
+      <c r="C125" s="269"/>
       <c r="D125" s="1"/>
       <c r="E125" s="2"/>
       <c r="F125" s="132"/>
@@ -33660,11 +33684,11 @@
       <c r="HI125" s="33"/>
       <c r="HJ125" s="33"/>
       <c r="HK125" s="33"/>
-      <c r="HL125" s="276"/>
+      <c r="HL125" s="254"/>
     </row>
-    <row r="126" spans="2:220">
-      <c r="B126" s="238"/>
-      <c r="C126" s="257"/>
+    <row r="126" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B126" s="261"/>
+      <c r="C126" s="270"/>
       <c r="D126" s="3"/>
       <c r="E126" s="4"/>
       <c r="F126" s="137"/>
@@ -33881,11 +33905,11 @@
       <c r="HI126" s="34"/>
       <c r="HJ126" s="34"/>
       <c r="HK126" s="34"/>
-      <c r="HL126" s="275"/>
+      <c r="HL126" s="253"/>
     </row>
-    <row r="127" spans="2:220">
-      <c r="B127" s="238"/>
-      <c r="C127" s="256"/>
+    <row r="127" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B127" s="261"/>
+      <c r="C127" s="269"/>
       <c r="D127" s="1"/>
       <c r="E127" s="2"/>
       <c r="F127" s="133"/>
@@ -34102,11 +34126,11 @@
       <c r="HI127" s="30"/>
       <c r="HJ127" s="30"/>
       <c r="HK127" s="30"/>
-      <c r="HL127" s="274"/>
+      <c r="HL127" s="252"/>
     </row>
-    <row r="128" spans="2:220">
-      <c r="B128" s="238"/>
-      <c r="C128" s="256"/>
+    <row r="128" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B128" s="261"/>
+      <c r="C128" s="269"/>
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
       <c r="F128" s="133"/>
@@ -34323,11 +34347,11 @@
       <c r="HI128" s="30"/>
       <c r="HJ128" s="30"/>
       <c r="HK128" s="30"/>
-      <c r="HL128" s="274"/>
+      <c r="HL128" s="252"/>
     </row>
-    <row r="129" spans="2:220">
-      <c r="B129" s="238"/>
-      <c r="C129" s="256"/>
+    <row r="129" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B129" s="261"/>
+      <c r="C129" s="269"/>
       <c r="D129" s="1"/>
       <c r="E129" s="2"/>
       <c r="F129" s="133"/>
@@ -34544,11 +34568,11 @@
       <c r="HI129" s="30"/>
       <c r="HJ129" s="30"/>
       <c r="HK129" s="30"/>
-      <c r="HL129" s="274"/>
+      <c r="HL129" s="252"/>
     </row>
-    <row r="130" spans="2:220">
-      <c r="B130" s="238"/>
-      <c r="C130" s="256"/>
+    <row r="130" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B130" s="261"/>
+      <c r="C130" s="269"/>
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
       <c r="F130" s="133"/>
@@ -34765,11 +34789,11 @@
       <c r="HI130" s="30"/>
       <c r="HJ130" s="30"/>
       <c r="HK130" s="30"/>
-      <c r="HL130" s="274"/>
+      <c r="HL130" s="252"/>
     </row>
-    <row r="131" spans="2:220">
-      <c r="B131" s="238"/>
-      <c r="C131" s="245"/>
+    <row r="131" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B131" s="261"/>
+      <c r="C131" s="271"/>
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
       <c r="F131" s="132"/>
@@ -34986,11 +35010,11 @@
       <c r="HI131" s="33"/>
       <c r="HJ131" s="33"/>
       <c r="HK131" s="33"/>
-      <c r="HL131" s="276"/>
+      <c r="HL131" s="254"/>
     </row>
-    <row r="132" spans="2:220">
-      <c r="B132" s="238"/>
-      <c r="C132" s="257"/>
+    <row r="132" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B132" s="261"/>
+      <c r="C132" s="270"/>
       <c r="D132" s="3"/>
       <c r="E132" s="4"/>
       <c r="F132" s="133"/>
@@ -35207,11 +35231,11 @@
       <c r="HI132" s="30"/>
       <c r="HJ132" s="30"/>
       <c r="HK132" s="30"/>
-      <c r="HL132" s="274"/>
+      <c r="HL132" s="252"/>
     </row>
-    <row r="133" spans="2:220">
-      <c r="B133" s="238"/>
-      <c r="C133" s="256"/>
+    <row r="133" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B133" s="261"/>
+      <c r="C133" s="269"/>
       <c r="D133" s="10"/>
       <c r="E133" s="17"/>
       <c r="F133" s="133"/>
@@ -35428,11 +35452,11 @@
       <c r="HI133" s="30"/>
       <c r="HJ133" s="30"/>
       <c r="HK133" s="30"/>
-      <c r="HL133" s="274"/>
+      <c r="HL133" s="252"/>
     </row>
-    <row r="134" spans="2:220">
-      <c r="B134" s="238"/>
-      <c r="C134" s="256"/>
+    <row r="134" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B134" s="261"/>
+      <c r="C134" s="269"/>
       <c r="D134" s="10"/>
       <c r="E134" s="17"/>
       <c r="F134" s="133"/>
@@ -35649,11 +35673,11 @@
       <c r="HI134" s="30"/>
       <c r="HJ134" s="30"/>
       <c r="HK134" s="30"/>
-      <c r="HL134" s="274"/>
+      <c r="HL134" s="252"/>
     </row>
-    <row r="135" spans="2:220">
-      <c r="B135" s="238"/>
-      <c r="C135" s="245"/>
+    <row r="135" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B135" s="261"/>
+      <c r="C135" s="271"/>
       <c r="D135" s="11"/>
       <c r="E135" s="19"/>
       <c r="F135" s="133"/>
@@ -35870,11 +35894,11 @@
       <c r="HI135" s="30"/>
       <c r="HJ135" s="30"/>
       <c r="HK135" s="30"/>
-      <c r="HL135" s="274"/>
+      <c r="HL135" s="252"/>
     </row>
-    <row r="136" spans="2:220">
-      <c r="B136" s="238"/>
-      <c r="C136" s="244"/>
+    <row r="136" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B136" s="261"/>
+      <c r="C136" s="272"/>
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
       <c r="F136" s="137"/>
@@ -36091,11 +36115,11 @@
       <c r="HI136" s="34"/>
       <c r="HJ136" s="34"/>
       <c r="HK136" s="34"/>
-      <c r="HL136" s="275"/>
+      <c r="HL136" s="253"/>
     </row>
-    <row r="137" spans="2:220">
-      <c r="B137" s="238"/>
-      <c r="C137" s="244"/>
+    <row r="137" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B137" s="261"/>
+      <c r="C137" s="272"/>
       <c r="D137" s="10"/>
       <c r="E137" s="2"/>
       <c r="F137" s="133"/>
@@ -36312,11 +36336,11 @@
       <c r="HI137" s="30"/>
       <c r="HJ137" s="30"/>
       <c r="HK137" s="30"/>
-      <c r="HL137" s="274"/>
+      <c r="HL137" s="252"/>
     </row>
-    <row r="138" spans="2:220" ht="17.25" thickBot="1">
-      <c r="B138" s="238"/>
-      <c r="C138" s="244"/>
+    <row r="138" spans="2:220" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="261"/>
+      <c r="C138" s="272"/>
       <c r="D138" s="10"/>
       <c r="E138" s="2"/>
       <c r="F138" s="133"/>
@@ -36533,11 +36557,11 @@
       <c r="HI138" s="30"/>
       <c r="HJ138" s="30"/>
       <c r="HK138" s="30"/>
-      <c r="HL138" s="274"/>
+      <c r="HL138" s="252"/>
     </row>
-    <row r="139" spans="2:220">
-      <c r="B139" s="237"/>
-      <c r="C139" s="247"/>
+    <row r="139" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B139" s="260"/>
+      <c r="C139" s="263"/>
       <c r="D139" s="15"/>
       <c r="E139" s="16"/>
       <c r="F139" s="136"/>
@@ -36754,11 +36778,11 @@
       <c r="HI139" s="29"/>
       <c r="HJ139" s="29"/>
       <c r="HK139" s="29"/>
-      <c r="HL139" s="277"/>
+      <c r="HL139" s="255"/>
     </row>
-    <row r="140" spans="2:220">
-      <c r="B140" s="238"/>
-      <c r="C140" s="248"/>
+    <row r="140" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B140" s="261"/>
+      <c r="C140" s="264"/>
       <c r="D140" s="10"/>
       <c r="E140" s="17"/>
       <c r="F140" s="133"/>
@@ -36975,11 +36999,11 @@
       <c r="HI140" s="31"/>
       <c r="HJ140" s="31"/>
       <c r="HK140" s="31"/>
-      <c r="HL140" s="278"/>
+      <c r="HL140" s="256"/>
     </row>
-    <row r="141" spans="2:220">
-      <c r="B141" s="238"/>
-      <c r="C141" s="248"/>
+    <row r="141" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B141" s="261"/>
+      <c r="C141" s="264"/>
       <c r="D141" s="9"/>
       <c r="E141" s="18"/>
       <c r="F141" s="137"/>
@@ -37196,11 +37220,11 @@
       <c r="HI141" s="35"/>
       <c r="HJ141" s="35"/>
       <c r="HK141" s="35"/>
-      <c r="HL141" s="280"/>
+      <c r="HL141" s="258"/>
     </row>
-    <row r="142" spans="2:220">
-      <c r="B142" s="238"/>
-      <c r="C142" s="249"/>
+    <row r="142" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B142" s="261"/>
+      <c r="C142" s="265"/>
       <c r="D142" s="11"/>
       <c r="E142" s="19"/>
       <c r="F142" s="132"/>
@@ -37417,11 +37441,11 @@
       <c r="HI142" s="32"/>
       <c r="HJ142" s="32"/>
       <c r="HK142" s="32"/>
-      <c r="HL142" s="279"/>
+      <c r="HL142" s="257"/>
     </row>
-    <row r="143" spans="2:220">
-      <c r="B143" s="238"/>
-      <c r="C143" s="250"/>
+    <row r="143" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B143" s="261"/>
+      <c r="C143" s="266"/>
       <c r="D143" s="9"/>
       <c r="E143" s="18"/>
       <c r="F143" s="133"/>
@@ -37638,11 +37662,11 @@
       <c r="HI143" s="30"/>
       <c r="HJ143" s="30"/>
       <c r="HK143" s="30"/>
-      <c r="HL143" s="274"/>
+      <c r="HL143" s="252"/>
     </row>
-    <row r="144" spans="2:220" ht="17.25" thickBot="1">
-      <c r="B144" s="253"/>
-      <c r="C144" s="254"/>
+    <row r="144" spans="2:220" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="262"/>
+      <c r="C144" s="267"/>
       <c r="D144" s="22"/>
       <c r="E144" s="192"/>
       <c r="F144" s="138"/>
@@ -37859,11 +37883,22 @@
       <c r="HI144" s="42"/>
       <c r="HJ144" s="42"/>
       <c r="HK144" s="42"/>
-      <c r="HL144" s="281"/>
+      <c r="HL144" s="259"/>
     </row>
-    <row r="145" ht="17.25" thickTop="1"/>
+    <row r="145" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:B63"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C48"/>
+    <mergeCell ref="C49:C57"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C64:C69"/>
     <mergeCell ref="B139:B144"/>
     <mergeCell ref="C139:C140"/>
     <mergeCell ref="C141:C142"/>
@@ -37880,17 +37915,6 @@
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="B74:B86"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="B21:B63"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C48"/>
-    <mergeCell ref="C49:C57"/>
-    <mergeCell ref="C61:C63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37901,12 +37925,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37914,12 +37938,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
